--- a/Data/testscriptdata.xlsx
+++ b/Data/testscriptdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalpana Shetty\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\elipse\pgm\SDET_29_SeleniumFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D3160-C627-43FD-852D-C20BEED54D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D3F0A-48BF-45C6-B847-DCE9A9A1DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10536" yWindow="456" windowWidth="12456" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15036" yWindow="2208" windowWidth="12456" windowHeight="11592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>TC_ID</t>
   </si>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>HDFC_</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Steel Industry</t>
   </si>
 </sst>
 </file>
@@ -478,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A6438-87C6-4F59-A2E2-3E551CF20069}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,6 +567,46 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
